--- a/CuratedDataSets/WorldCup.xlsx
+++ b/CuratedDataSets/WorldCup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20377"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njacob\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njacob\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3705BF7B-A51F-441F-A8FC-48509FED080A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F39F6A3-39B4-4BBA-8083-51959724C15D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{7A9B8629-E2B6-482C-B20F-ACDD2F0FE21C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19155" windowHeight="6780" xr2:uid="{7A9B8629-E2B6-482C-B20F-ACDD2F0FE21C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="42">
   <si>
     <t>Year</t>
   </si>
@@ -142,6 +142,15 @@
   </si>
   <si>
     <t>South Africa</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Morocco</t>
   </si>
 </sst>
 </file>
@@ -495,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23D4A05-8AC2-4DB6-9475-EAD5CC58E3CD}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,6 +1184,70 @@
         <v>3386810</v>
       </c>
     </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2018</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22">
+        <v>169</v>
+      </c>
+      <c r="H22">
+        <v>32</v>
+      </c>
+      <c r="I22">
+        <v>64</v>
+      </c>
+      <c r="J22" s="2">
+        <v>3031768</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2022</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23">
+        <v>172</v>
+      </c>
+      <c r="H23">
+        <v>32</v>
+      </c>
+      <c r="I23">
+        <v>64</v>
+      </c>
+      <c r="J23" s="2">
+        <v>3404252</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
